--- a/npc.xlsx
+++ b/npc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,62 +34,69 @@
     <t>CS</t>
   </si>
   <si>
-    <t>DESC</t>
+    <t>String</t>
+  </si>
+  <si>
+    <t>配置ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdasda1</t>
+    <t>npc类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>asdasda2</t>
-  </si>
-  <si>
-    <t>asdasda3</t>
-  </si>
-  <si>
-    <t>asdasda5</t>
-  </si>
-  <si>
-    <t>asdasda6</t>
-  </si>
-  <si>
-    <t>asdasda7</t>
-  </si>
-  <si>
-    <t>asdasda8</t>
-  </si>
-  <si>
-    <t>asdasda9</t>
-  </si>
-  <si>
-    <t>asdasda10</t>
-  </si>
-  <si>
-    <t>asdasda11</t>
-  </si>
-  <si>
-    <t>asdasda12</t>
-  </si>
-  <si>
-    <t>asdasda13</t>
-  </si>
-  <si>
-    <t>asdasda14</t>
-  </si>
-  <si>
-    <t>String</t>
-  </si>
-  <si>
-    <t>发生的,发生,是对方答复</t>
+    <t>资源key</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcSource1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NpcSource2</t>
+  </si>
+  <si>
+    <t>NpcSource3</t>
+  </si>
+  <si>
+    <t>NpcSource4</t>
+  </si>
+  <si>
+    <t>NpcSource5</t>
+  </si>
+  <si>
+    <t>NpcSource6</t>
+  </si>
+  <si>
+    <t>NpcSource7</t>
+  </si>
+  <si>
+    <t>NpcSource8</t>
+  </si>
+  <si>
+    <t>NpcSource9</t>
+  </si>
+  <si>
+    <t>NpcSource10</t>
+  </si>
+  <si>
+    <t>NpcSource11</t>
+  </si>
+  <si>
+    <t>NpcSource12</t>
+  </si>
+  <si>
+    <t>NpcSource13</t>
+  </si>
+  <si>
+    <t>NpcSource14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,20 +445,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="20.36328125" customWidth="1"/>
     <col min="3" max="3" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,18 +469,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -484,169 +491,169 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>12</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21">
+      <c r="B19">
         <v>4</v>
       </c>
-      <c r="C21" t="s">
-        <v>18</v>
+      <c r="C19" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/npc.xlsx
+++ b/npc.xlsx
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
